--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\git\dsml-fraud-detection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JFolic10124\Documents\FHTW\dsml-fraud-detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773ED86D-6140-4F4C-BC8B-65FAA0805229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465D005D-5F97-49FD-8CB5-0F547BCC8FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="23929" yWindow="-1503" windowWidth="24267" windowHeight="13148" xr2:uid="{ED9AF154-EEE6-4E50-AF0B-454B153EC8DF}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15930" xr2:uid="{ED9AF154-EEE6-4E50-AF0B-454B153EC8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000000000000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -150,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -164,10 +163,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -260,7 +257,7 @@
             <c:numRef>
               <c:f>Tabelle1!$B$2:$G$2</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000000000000000</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.92297883193062902</c:v>
@@ -343,7 +340,7 @@
             <c:numRef>
               <c:f>Tabelle1!$B$3:$G$3</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000000000000000</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.92334652986007004</c:v>
@@ -426,7 +423,7 @@
             <c:numRef>
               <c:f>Tabelle1!$B$4:$G$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000000000000000</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.94129870129870097</c:v>
@@ -509,7 +506,7 @@
             <c:numRef>
               <c:f>Tabelle1!$B$5:$G$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000000000000000</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.90554722638680596</c:v>
@@ -592,7 +589,7 @@
             <c:numRef>
               <c:f>Tabelle1!$B$6:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000000000000000</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.94114583333333302</c:v>
@@ -675,7 +672,7 @@
             <c:numRef>
               <c:f>Tabelle1!$B$7:$G$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000000000000000</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.92307692307692302</c:v>
@@ -1791,28 +1788,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9389970E-3421-472F-99F8-6ECE6298B087}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="25.109375" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="68.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="68.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>13</v>
@@ -1851,26 +1845,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>0.92297883193062902</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>0.99921049295206399</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>0.91656163347617803</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>0.99920368234050305</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>0.91791613722998699</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>0.99912247889496197</v>
       </c>
       <c r="H2" s="7">
@@ -1892,26 +1886,26 @@
         <v>0.99908894973035201</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>0.92334652986007004</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.74509338693511196</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>0.91691519102942698</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>0.74428392384918096</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>0.91812253984692205</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>0.71885258870967605</v>
       </c>
       <c r="H3" s="7">
@@ -1933,26 +1927,26 @@
         <v>0.69888598183329098</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>0.94129870129870097</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>0.832762165867032</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>0.93766233766233698</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>0.827185792349726</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>0.93188854489163997</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>0.79370885149963399</v>
       </c>
       <c r="H4" s="7">
@@ -1974,26 +1968,26 @@
         <v>0.79967558799675498</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>0.90554722638680596</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>0.49031476997578599</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>0.89533730158730096</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>0.48870056497175102</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>0.90435653480220302</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>0.43785310734463201</v>
       </c>
       <c r="H5" s="7">
@@ -2015,26 +2009,26 @@
         <v>0.39790153349475299</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>0.94114583333333302</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>0.99987200389443798</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>0.938493080471553</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>0.99986728272660996</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>0.93188854489163997</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>0.99985207007471999</v>
       </c>
       <c r="H6" s="7">
@@ -2056,26 +2050,26 @@
         <v>0.99987043017182897</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>0.92307692307692302</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>0.61722123444246801</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>0.916011164679015</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>0.61440892947742198</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>0.91791613722998699</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>0.56436931079323704</v>
       </c>
       <c r="H7" s="8">
@@ -2098,6 +2092,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:M7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
